--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Davies.Spring.012221.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Davies.Spring.012221.xlsx_with_dialog_acts.xlsx
@@ -813,12 +813,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1991,12 +1991,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2143,12 +2143,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2181,12 +2181,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2675,12 +2675,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2941,12 +2941,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4233,12 +4233,12 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4347,12 +4347,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4423,12 +4423,12 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4651,12 +4651,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4803,12 +4803,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5069,12 +5069,12 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5107,12 +5107,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5525,12 +5525,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6711,12 +6711,12 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6749,12 +6749,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6787,12 +6787,12 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6943,12 +6943,12 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7019,12 +7019,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7285,12 +7285,12 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7893,12 +7893,12 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8045,12 +8045,12 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8577,12 +8577,12 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -9033,12 +9033,12 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9147,12 +9147,12 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9261,12 +9261,12 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9451,12 +9451,12 @@
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10211,12 +10211,12 @@
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10363,12 +10363,12 @@
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10519,12 +10519,12 @@
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10557,12 +10557,12 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10941,12 +10941,12 @@
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12081,12 +12081,12 @@
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12233,12 +12233,12 @@
       <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12423,12 +12423,12 @@
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12461,12 +12461,12 @@
       <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13343,12 +13343,12 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13381,12 +13381,12 @@
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13495,12 +13495,12 @@
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14065,12 +14065,12 @@
       <c r="H358" t="inlineStr"/>
       <c r="I358" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15091,12 +15091,12 @@
       <c r="H385" t="inlineStr"/>
       <c r="I385" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15775,12 +15775,12 @@
       <c r="H403" t="inlineStr"/>
       <c r="I403" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15851,12 +15851,12 @@
       <c r="H405" t="inlineStr"/>
       <c r="I405" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15927,12 +15927,12 @@
       <c r="H407" t="inlineStr"/>
       <c r="I407" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15965,12 +15965,12 @@
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16003,12 +16003,12 @@
       <c r="H409" t="inlineStr"/>
       <c r="I409" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16117,12 +16117,12 @@
       <c r="H412" t="inlineStr"/>
       <c r="I412" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16421,12 +16421,12 @@
       <c r="H420" t="inlineStr"/>
       <c r="I420" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -16535,12 +16535,12 @@
       <c r="H423" t="inlineStr"/>
       <c r="I423" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16573,12 +16573,12 @@
       <c r="H424" t="inlineStr"/>
       <c r="I424" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16649,12 +16649,12 @@
       <c r="H426" t="inlineStr"/>
       <c r="I426" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16725,12 +16725,12 @@
       <c r="H428" t="inlineStr"/>
       <c r="I428" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16763,12 +16763,12 @@
       <c r="H429" t="inlineStr"/>
       <c r="I429" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17147,12 +17147,12 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17717,12 +17717,12 @@
       <c r="H454" t="inlineStr"/>
       <c r="I454" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17831,12 +17831,12 @@
       <c r="H457" t="inlineStr"/>
       <c r="I457" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18097,12 +18097,12 @@
       <c r="H464" t="inlineStr"/>
       <c r="I464" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18405,12 +18405,12 @@
       <c r="H472" t="inlineStr"/>
       <c r="I472" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18519,12 +18519,12 @@
       <c r="H475" t="inlineStr"/>
       <c r="I475" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18595,12 +18595,12 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18671,12 +18671,12 @@
       <c r="H479" t="inlineStr"/>
       <c r="I479" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18747,12 +18747,12 @@
       <c r="H481" t="inlineStr"/>
       <c r="I481" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18861,12 +18861,12 @@
       <c r="H484" t="inlineStr"/>
       <c r="I484" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19625,12 +19625,12 @@
       <c r="H504" t="inlineStr"/>
       <c r="I504" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19705,12 +19705,12 @@
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19895,12 +19895,12 @@
       <c r="H511" t="inlineStr"/>
       <c r="I511" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20959,12 +20959,12 @@
       <c r="H539" t="inlineStr"/>
       <c r="I539" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
